--- a/bin/parser/data/SLR_parsing_table.xlsx
+++ b/bin/parser/data/SLR_parsing_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\work\caustudy\3-1\Compiler\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\work\caustudy\3-1\Compiler\Assignment\Compilers77\bin\parser\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2B6FE2-2557-4DF6-A4B3-7661B427EB7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD39B620-5DA6-4F2F-8D47-D859893B85C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D492C6FE-A255-4F4D-8E59-EBDF1DBA6CCC}"/>
   </bookViews>
@@ -545,10 +545,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,163 +866,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB453B3C-0FF4-4337-B578-3B26C763F418}">
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" workbookViewId="0">
-      <selection activeCell="V84" sqref="V84"/>
+    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="1" t="s">
         <v>36</v>
       </c>
     </row>

--- a/bin/parser/data/SLR_parsing_table.xlsx
+++ b/bin/parser/data/SLR_parsing_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\work\caustudy\3-1\Compiler\Assignment\Compilers77\bin\parser\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\work\caustudy\3-1\Compiler\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD39B620-5DA6-4F2F-8D47-D859893B85C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73EFA7F-C2DB-49C4-9EF4-D17A8F234265}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D492C6FE-A255-4F4D-8E59-EBDF1DBA6CCC}"/>
   </bookViews>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB453B3C-0FF4-4337-B578-3B26C763F418}">
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" zoomScale="38" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1214,6 +1214,12 @@
       <c r="AF14">
         <v>15</v>
       </c>
+      <c r="AG14">
+        <v>16</v>
+      </c>
+      <c r="AH14">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A15">

--- a/bin/parser/data/SLR_parsing_table.xlsx
+++ b/bin/parser/data/SLR_parsing_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\work\caustudy\3-1\Compiler\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\work\caustudy\3-1\Compiler\Assignment\Compilers77\bin\parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73EFA7F-C2DB-49C4-9EF4-D17A8F234265}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4327B8-7A31-4A76-A94C-C71542181050}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D492C6FE-A255-4F4D-8E59-EBDF1DBA6CCC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="116">
   <si>
     <t>vtype</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,7 +501,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,13 +517,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -535,12 +548,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -550,8 +566,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -866,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB453B3C-0FF4-4337-B578-3B26C763F418}">
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="38" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1188,6 +1208,9 @@
       <c r="U13" t="s">
         <v>49</v>
       </c>
+      <c r="V13" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A14">

--- a/bin/parser/data/SLR_parsing_table.xlsx
+++ b/bin/parser/data/SLR_parsing_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\work\caustudy\3-1\Compiler\Assignment\Compilers77\bin\parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\work\caustudy\3-1\Compiler\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4327B8-7A31-4A76-A94C-C71542181050}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3DFC3-0926-41A2-90E3-AFFA8D90BDD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D492C6FE-A255-4F4D-8E59-EBDF1DBA6CCC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="121">
   <si>
     <t>vtype</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,6 +494,26 @@
   </si>
   <si>
     <t>R 32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S 83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S 85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S 84</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,26 +537,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -548,15 +555,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,12 +570,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB453B3C-0FF4-4337-B578-3B26C763F418}">
-  <dimension ref="A1:AK84"/>
+  <dimension ref="A1:AK87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView tabSelected="1" zoomScale="28" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1078,6 +1078,9 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
       <c r="V5" t="s">
         <v>38</v>
       </c>
@@ -1103,6 +1106,9 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
       <c r="V7" t="s">
         <v>38</v>
       </c>
@@ -1174,6 +1180,9 @@
       <c r="U11" t="s">
         <v>47</v>
       </c>
+      <c r="V11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A12">
@@ -1208,7 +1217,7 @@
       <c r="U13" t="s">
         <v>49</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="V13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1387,8 +1396,8 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="S23">
-        <v>22</v>
+      <c r="S23" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.4">
@@ -1553,7 +1562,7 @@
         <v>33</v>
       </c>
       <c r="Q35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S35" t="s">
         <v>71</v>
@@ -1591,10 +1600,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="G39" t="s">
         <v>78</v>
@@ -1650,6 +1659,9 @@
       <c r="B42" t="s">
         <v>84</v>
       </c>
+      <c r="V42" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A43">
@@ -1716,10 +1728,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="G46" t="s">
         <v>78</v>
@@ -1770,6 +1782,9 @@
       <c r="F48" t="s">
         <v>53</v>
       </c>
+      <c r="R48" t="s">
+        <v>51</v>
+      </c>
       <c r="AH48">
         <v>57</v>
       </c>
@@ -1798,10 +1813,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="G51" t="s">
         <v>78</v>
@@ -1840,8 +1855,29 @@
       <c r="A53">
         <v>51</v>
       </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" t="s">
+        <v>119</v>
+      </c>
+      <c r="G53" t="s">
+        <v>119</v>
+      </c>
       <c r="H53" t="s">
         <v>93</v>
+      </c>
+      <c r="I53" t="s">
+        <v>119</v>
+      </c>
+      <c r="J53" t="s">
+        <v>119</v>
+      </c>
+      <c r="K53" t="s">
+        <v>119</v>
+      </c>
+      <c r="U53" t="s">
+        <v>119</v>
       </c>
       <c r="AK53">
         <v>52</v>
@@ -1886,10 +1922,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="G56" t="s">
         <v>78</v>
@@ -1901,6 +1937,9 @@
         <v>80</v>
       </c>
       <c r="K56" t="s">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s">
         <v>81</v>
       </c>
       <c r="X56">
@@ -2049,10 +2088,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="G67" t="s">
         <v>78</v>
@@ -2129,7 +2168,7 @@
         <v>69</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AD71">
         <v>70</v>
@@ -2179,7 +2218,7 @@
         <v>73</v>
       </c>
       <c r="F75" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AD75">
         <v>74</v>
@@ -2206,10 +2245,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="F78" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="G78" t="s">
         <v>78</v>
@@ -2318,6 +2357,36 @@
       </c>
       <c r="U84" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="F85" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="N86" t="s">
+        <v>42</v>
+      </c>
+      <c r="P86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="N87" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/bin/parser/data/SLR_parsing_table.xlsx
+++ b/bin/parser/data/SLR_parsing_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\work\caustudy\3-1\Compiler\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\work\caustudy\3-1\Compiler\Assignment\Compilers77\bin\parser\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB3DFC3-0926-41A2-90E3-AFFA8D90BDD1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027BAA46-836F-4219-A56F-B58C50DA8357}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D492C6FE-A255-4F4D-8E59-EBDF1DBA6CCC}"/>
   </bookViews>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,6 +510,10 @@
   </si>
   <si>
     <t>S 84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB453B3C-0FF4-4337-B578-3B26C763F418}">
   <dimension ref="A1:AK87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="28" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N87" sqref="N87"/>
+    <sheetView tabSelected="1" zoomScale="43" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -998,7 +998,7 @@
         <v>19</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>22</v>
@@ -1051,10 +1051,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W3">
         <v>2</v>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.4">
@@ -1079,10 +1079,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W5">
         <v>4</v>
@@ -1099,7 +1099,7 @@
         <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.4">
@@ -1107,10 +1107,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W7">
         <v>6</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="V8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.4">
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AD9">
         <v>10</v>
@@ -1146,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" t="s">
         <v>45</v>
-      </c>
-      <c r="R10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
@@ -1160,28 +1160,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.4">
@@ -1189,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.4">
@@ -1197,28 +1197,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.4">
@@ -1226,19 +1226,19 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="R14" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="R14" t="s">
-        <v>51</v>
       </c>
       <c r="AE14">
         <v>13</v>
@@ -1258,10 +1258,10 @@
         <v>13</v>
       </c>
       <c r="P15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.4">
@@ -1269,10 +1269,10 @@
         <v>14</v>
       </c>
       <c r="P16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.4">
@@ -1280,10 +1280,10 @@
         <v>15</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.4">
@@ -1291,13 +1291,13 @@
         <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.4">
@@ -1305,16 +1305,16 @@
         <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.4">
@@ -1322,16 +1322,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
-      </c>
       <c r="R20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF20">
         <v>27</v>
@@ -1348,16 +1348,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
       <c r="R21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG21">
         <v>26</v>
@@ -1371,16 +1371,16 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
         <v>52</v>
       </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
       <c r="R22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF22">
         <v>21</v>
@@ -1397,7 +1397,7 @@
         <v>21</v>
       </c>
       <c r="S23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.4">
@@ -1405,19 +1405,19 @@
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.4">
@@ -1425,19 +1425,19 @@
         <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.4">
@@ -1445,19 +1445,19 @@
         <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.4">
@@ -1465,19 +1465,19 @@
         <v>25</v>
       </c>
       <c r="L27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.4">
@@ -1485,13 +1485,13 @@
         <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.4">
@@ -1499,10 +1499,10 @@
         <v>27</v>
       </c>
       <c r="P29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.4">
@@ -1510,10 +1510,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="S30" t="s">
         <v>68</v>
-      </c>
-      <c r="S30" t="s">
-        <v>69</v>
       </c>
       <c r="Z30">
         <v>35</v>
@@ -1524,7 +1524,7 @@
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.4">
@@ -1532,10 +1532,10 @@
         <v>30</v>
       </c>
       <c r="Q32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA32">
         <v>58</v>
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.4">
@@ -1554,7 +1554,7 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.4">
@@ -1562,10 +1562,10 @@
         <v>33</v>
       </c>
       <c r="Q35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AA35">
         <v>34</v>
@@ -1576,7 +1576,7 @@
         <v>34</v>
       </c>
       <c r="S36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.4">
@@ -1584,7 +1584,7 @@
         <v>35</v>
       </c>
       <c r="S37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.4">
@@ -1592,7 +1592,7 @@
         <v>36</v>
       </c>
       <c r="T38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.4">
@@ -1600,25 +1600,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" t="s">
         <v>117</v>
       </c>
-      <c r="F39" t="s">
-        <v>118</v>
-      </c>
       <c r="G39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s">
         <v>78</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>79</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>80</v>
       </c>
-      <c r="K39" t="s">
-        <v>81</v>
-      </c>
       <c r="U39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X39">
         <v>41</v>
@@ -1638,7 +1638,7 @@
         <v>38</v>
       </c>
       <c r="K40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ40">
         <v>39</v>
@@ -1649,7 +1649,7 @@
         <v>39</v>
       </c>
       <c r="U41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.4">
@@ -1657,10 +1657,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.4">
@@ -1668,25 +1668,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.4">
@@ -1694,7 +1694,7 @@
         <v>42</v>
       </c>
       <c r="P44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.4">
@@ -1702,25 +1702,25 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.4">
@@ -1728,25 +1728,25 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" t="s">
         <v>117</v>
       </c>
-      <c r="F46" t="s">
-        <v>118</v>
-      </c>
       <c r="G46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s">
         <v>78</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>79</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>80</v>
       </c>
-      <c r="K46" t="s">
-        <v>81</v>
-      </c>
       <c r="U46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X46">
         <v>41</v>
@@ -1766,7 +1766,7 @@
         <v>45</v>
       </c>
       <c r="R47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.4">
@@ -1774,16 +1774,16 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
         <v>52</v>
       </c>
-      <c r="D48" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" t="s">
-        <v>53</v>
-      </c>
       <c r="R48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH48">
         <v>57</v>
@@ -1797,7 +1797,7 @@
         <v>47</v>
       </c>
       <c r="S49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
@@ -1805,7 +1805,7 @@
         <v>48</v>
       </c>
       <c r="T50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
@@ -1813,25 +1813,25 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" t="s">
         <v>117</v>
       </c>
-      <c r="F51" t="s">
-        <v>118</v>
-      </c>
       <c r="G51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s">
         <v>78</v>
       </c>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
       <c r="J51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X51">
         <v>41</v>
@@ -1848,7 +1848,7 @@
         <v>50</v>
       </c>
       <c r="U52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
@@ -1856,28 +1856,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AK53">
         <v>52</v>
@@ -1888,25 +1888,25 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.4">
@@ -1914,7 +1914,7 @@
         <v>53</v>
       </c>
       <c r="T55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
@@ -1922,25 +1922,25 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" t="s">
         <v>117</v>
       </c>
-      <c r="F56" t="s">
-        <v>118</v>
-      </c>
       <c r="G56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s">
         <v>78</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>79</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>80</v>
       </c>
-      <c r="K56" t="s">
-        <v>81</v>
-      </c>
       <c r="U56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X56">
         <v>41</v>
@@ -1960,7 +1960,7 @@
         <v>55</v>
       </c>
       <c r="U57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
@@ -1968,25 +1968,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
@@ -1994,7 +1994,7 @@
         <v>57</v>
       </c>
       <c r="O59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
@@ -2002,7 +2002,7 @@
         <v>58</v>
       </c>
       <c r="S60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
@@ -2010,16 +2010,16 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" t="s">
         <v>52</v>
       </c>
-      <c r="D61" t="s">
-        <v>54</v>
-      </c>
-      <c r="F61" t="s">
-        <v>53</v>
-      </c>
       <c r="R61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH61">
         <v>60</v>
@@ -2030,10 +2030,10 @@
         <v>60</v>
       </c>
       <c r="P62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
@@ -2041,7 +2041,7 @@
         <v>61</v>
       </c>
       <c r="R63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.4">
@@ -2049,16 +2049,16 @@
         <v>62</v>
       </c>
       <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" t="s">
         <v>52</v>
       </c>
-      <c r="D64" t="s">
-        <v>54</v>
-      </c>
-      <c r="F64" t="s">
-        <v>53</v>
-      </c>
       <c r="R64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH64">
         <v>57</v>
@@ -2072,7 +2072,7 @@
         <v>63</v>
       </c>
       <c r="S65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.4">
@@ -2080,7 +2080,7 @@
         <v>64</v>
       </c>
       <c r="T66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.4">
@@ -2088,25 +2088,25 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" t="s">
         <v>117</v>
       </c>
-      <c r="F67" t="s">
-        <v>118</v>
-      </c>
       <c r="G67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s">
         <v>78</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>79</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>80</v>
       </c>
-      <c r="K67" t="s">
-        <v>81</v>
-      </c>
       <c r="U67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X67">
         <v>41</v>
@@ -2126,7 +2126,7 @@
         <v>66</v>
       </c>
       <c r="U68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.4">
@@ -2134,25 +2134,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.4">
@@ -2160,7 +2160,7 @@
         <v>68</v>
       </c>
       <c r="R70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.4">
@@ -2168,7 +2168,7 @@
         <v>69</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD71">
         <v>70</v>
@@ -2179,7 +2179,7 @@
         <v>70</v>
       </c>
       <c r="P72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.4">
@@ -2187,16 +2187,16 @@
         <v>71</v>
       </c>
       <c r="C73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" t="s">
         <v>52</v>
       </c>
-      <c r="D73" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" t="s">
-        <v>53</v>
-      </c>
       <c r="R73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH73">
         <v>57</v>
@@ -2210,7 +2210,7 @@
         <v>72</v>
       </c>
       <c r="P74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.4">
@@ -2218,7 +2218,7 @@
         <v>73</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD75">
         <v>74</v>
@@ -2229,7 +2229,7 @@
         <v>74</v>
       </c>
       <c r="S76" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.4">
@@ -2237,7 +2237,7 @@
         <v>75</v>
       </c>
       <c r="T77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.4">
@@ -2245,25 +2245,25 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" t="s">
         <v>117</v>
       </c>
-      <c r="F78" t="s">
-        <v>118</v>
-      </c>
       <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s">
         <v>78</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>79</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>80</v>
       </c>
-      <c r="K78" t="s">
-        <v>81</v>
-      </c>
       <c r="U78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="X78">
         <v>41</v>
@@ -2283,7 +2283,7 @@
         <v>77</v>
       </c>
       <c r="U79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.4">
@@ -2291,25 +2291,25 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.4">
@@ -2317,10 +2317,10 @@
         <v>79</v>
       </c>
       <c r="K81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.4">
@@ -2328,16 +2328,16 @@
         <v>80</v>
       </c>
       <c r="C82" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" t="s">
         <v>52</v>
       </c>
-      <c r="D82" t="s">
-        <v>54</v>
-      </c>
-      <c r="F82" t="s">
-        <v>53</v>
-      </c>
       <c r="R82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH82">
         <v>81</v>
@@ -2348,7 +2348,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.4">
@@ -2356,7 +2356,7 @@
         <v>82</v>
       </c>
       <c r="U84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.4">
@@ -2364,7 +2364,7 @@
         <v>83</v>
       </c>
       <c r="F85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD85">
         <v>10</v>
@@ -2375,10 +2375,10 @@
         <v>84</v>
       </c>
       <c r="N86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.4">
@@ -2386,7 +2386,7 @@
         <v>85</v>
       </c>
       <c r="N87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
